--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/37.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/37.xlsx
@@ -479,13 +479,13 @@
         <v>-0.3186508688995562</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.944158930547418</v>
+        <v>-1.942371831684145</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1310986740667978</v>
+        <v>0.1304474926182526</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.147573404804491</v>
+        <v>-0.1474828818228546</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3341589915523829</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.086615822777379</v>
+        <v>-2.084892236006062</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06811657956926931</v>
+        <v>0.06773842711372395</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1200617186274983</v>
+        <v>-0.1200558784351347</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3718914992252307</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.299061580293141</v>
+        <v>-2.296927720008278</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05520975444563641</v>
+        <v>0.05466077636345474</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1433363452446739</v>
+        <v>-0.1432151612531285</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.4217219067272622</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.468857143001322</v>
+        <v>-2.466634949806959</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0008419436844691884</v>
+        <v>0.0005835151723783487</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1687630827478489</v>
+        <v>-0.1687032207761217</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.4703368496292265</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.538802206844395</v>
+        <v>-2.536593154082849</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.07378987453041987</v>
+        <v>-0.07363510943278354</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1718452442677572</v>
+        <v>-0.171960588066939</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.5079174066185141</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.338020773526903</v>
+        <v>-2.336149721898403</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1258843904140422</v>
+        <v>-0.124960179972497</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1474478406686728</v>
+        <v>-0.1476113660548546</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.5294435444538905</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.030863886426031</v>
+        <v>-2.028652643592349</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1763494926282105</v>
+        <v>-0.1748412629503018</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1161283490705903</v>
+        <v>-0.1163692570055902</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.5277568950698914</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.677556339219626</v>
+        <v>-1.67483188948199</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1061591407058657</v>
+        <v>-0.1048509376164115</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07334455986269271</v>
+        <v>-0.07347596419087449</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.4925320331041073</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.247027578509105</v>
+        <v>-1.24374247030456</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008702842605921622</v>
+        <v>0.009155457514103319</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01063257426198228</v>
+        <v>-0.01069973647416408</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.4119338904808849</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9346984710461886</v>
+        <v>-0.930839563941917</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07411737722290405</v>
+        <v>0.07403123438554045</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0161588562860717</v>
+        <v>-0.0160916940738899</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2802584272543805</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5708515666955591</v>
+        <v>-0.5662056936702876</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1462481330580665</v>
+        <v>0.1455502300706122</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02194502687034287</v>
+        <v>-0.02145883085607028</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1055650572023347</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1277488718261326</v>
+        <v>-0.1221744082150432</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01050308190201205</v>
+        <v>0.0100928083884667</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04672833508554777</v>
+        <v>0.0473868167745476</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.09248463717269385</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3248674964036549</v>
+        <v>0.3312844077631986</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1627579049499414</v>
+        <v>-0.1630090332215777</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1144030241472569</v>
+        <v>0.1154790795902566</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2929793268729966</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8694464536874178</v>
+        <v>0.8760706918758705</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.181315116185391</v>
+        <v>-0.1823298496085725</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1962387196426894</v>
+        <v>0.1973571164803255</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4804000954050003</v>
       </c>
       <c r="E16" t="n">
-        <v>1.569222682842412</v>
+        <v>1.575363645112774</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5158953565537557</v>
+        <v>-0.5169845524295735</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2614955690658538</v>
+        <v>0.2625672443645807</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6562034336717316</v>
       </c>
       <c r="E17" t="n">
-        <v>2.274719380417586</v>
+        <v>2.280187260518039</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6822269551662565</v>
+        <v>-0.6837410250365288</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3718138827187332</v>
+        <v>0.3729790010952784</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8344219145827435</v>
       </c>
       <c r="E18" t="n">
-        <v>3.038147866143835</v>
+        <v>3.043009826286561</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.960903414181818</v>
+        <v>-0.9621021136644541</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4829498233025216</v>
+        <v>0.4842186050935212</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.02106639181501</v>
       </c>
       <c r="E19" t="n">
-        <v>3.667907489099303</v>
+        <v>3.672049645533211</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.200895899028753</v>
+        <v>-1.202098978655662</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6028664931050348</v>
+        <v>0.6042827397532162</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.210491861715417</v>
       </c>
       <c r="E20" t="n">
-        <v>4.329669906159397</v>
+        <v>4.332516999936669</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.461348037773593</v>
+        <v>-1.462381751821956</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7142667023932776</v>
+        <v>0.716229007027459</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.39089812497223</v>
       </c>
       <c r="E21" t="n">
-        <v>4.853451938436257</v>
+        <v>4.855675591678711</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.733956536923338</v>
+        <v>-1.734527415726883</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8621009517420561</v>
+        <v>0.8639479125770556</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.557733992225921</v>
       </c>
       <c r="E22" t="n">
-        <v>5.372037659557573</v>
+        <v>5.37312685543339</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.953776267322233</v>
+        <v>-1.954275603769324</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9486409221863965</v>
+        <v>0.9506280476381233</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.710114278201323</v>
       </c>
       <c r="E23" t="n">
-        <v>5.718825362014025</v>
+        <v>5.719378720240479</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.20358100536412</v>
+        <v>-2.203288265721894</v>
       </c>
       <c r="G23" t="n">
-        <v>1.058198550783912</v>
+        <v>1.060482065998094</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.845273897321527</v>
       </c>
       <c r="E24" t="n">
-        <v>6.141977959769275</v>
+        <v>6.141523884813002</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.433423235883059</v>
+        <v>-2.432462524239241</v>
       </c>
       <c r="G24" t="n">
-        <v>1.178671498909062</v>
+        <v>1.180597302340971</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.958435153952671</v>
       </c>
       <c r="E25" t="n">
-        <v>6.43258301168756</v>
+        <v>6.431045581047833</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.557607626255298</v>
+        <v>-2.556844021103753</v>
       </c>
       <c r="G25" t="n">
-        <v>1.252754339041769</v>
+        <v>1.254669922137042</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.047026160305439</v>
       </c>
       <c r="E26" t="n">
-        <v>6.597180073168062</v>
+        <v>6.594502344969335</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.606337461313422</v>
+        <v>-2.605875356092649</v>
       </c>
       <c r="G26" t="n">
-        <v>1.316792048309025</v>
+        <v>1.318393721064752</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.109400454154743</v>
       </c>
       <c r="E27" t="n">
-        <v>6.701907862680851</v>
+        <v>6.698694296832762</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.690780802699217</v>
+        <v>-2.689788700021445</v>
       </c>
       <c r="G27" t="n">
-        <v>1.327024065330113</v>
+        <v>1.329054992224567</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.144661552510544</v>
       </c>
       <c r="E28" t="n">
-        <v>6.885764418528529</v>
+        <v>6.881625182190803</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.717875645146255</v>
+        <v>-2.717171171942392</v>
       </c>
       <c r="G28" t="n">
-        <v>1.366860017442466</v>
+        <v>1.36876246010492</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.151752475500298</v>
       </c>
       <c r="E29" t="n">
-        <v>6.849644288807539</v>
+        <v>6.84512982011045</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.738884277126341</v>
+        <v>-2.737986347550432</v>
       </c>
       <c r="G29" t="n">
-        <v>1.352808514615561</v>
+        <v>1.354572252709378</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.129388568338265</v>
       </c>
       <c r="E30" t="n">
-        <v>6.785021100255829</v>
+        <v>6.780208781748194</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.641041344386231</v>
+        <v>-2.640785835970322</v>
       </c>
       <c r="G30" t="n">
-        <v>1.336131845321201</v>
+        <v>1.337807980529565</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.080029501062057</v>
       </c>
       <c r="E31" t="n">
-        <v>6.809309000248096</v>
+        <v>6.803357844229551</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.541468254658394</v>
+        <v>-2.541577028241166</v>
       </c>
       <c r="G31" t="n">
-        <v>1.297685858991394</v>
+        <v>1.299421856171484</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.009128970347999</v>
       </c>
       <c r="E32" t="n">
-        <v>6.768607239617833</v>
+        <v>6.761781514792836</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.407456280586248</v>
+        <v>-2.407988468115384</v>
       </c>
       <c r="G32" t="n">
-        <v>1.251123465324224</v>
+        <v>1.252674036396769</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.922687013036689</v>
       </c>
       <c r="E33" t="n">
-        <v>6.602119415859605</v>
+        <v>6.594699451461608</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.373098428910984</v>
+        <v>-2.373313786004393</v>
       </c>
       <c r="G33" t="n">
-        <v>1.193215037942604</v>
+        <v>1.194715967380058</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.827683205526306</v>
       </c>
       <c r="E34" t="n">
-        <v>6.305091612389413</v>
+        <v>6.298249827035415</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.335788359995903</v>
+        <v>-2.336301566899858</v>
       </c>
       <c r="G34" t="n">
-        <v>1.143277013089253</v>
+        <v>1.144742901372526</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.730222427747581</v>
       </c>
       <c r="E35" t="n">
-        <v>6.109430567726738</v>
+        <v>6.102502639535376</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.297824189536096</v>
+        <v>-2.297988444946323</v>
       </c>
       <c r="G35" t="n">
-        <v>1.083428181794815</v>
+        <v>1.084698423633905</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.6320386685219</v>
       </c>
       <c r="E36" t="n">
-        <v>5.912439419253245</v>
+        <v>5.905384466877974</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.23389087370734</v>
+        <v>-2.234480733136067</v>
       </c>
       <c r="G36" t="n">
-        <v>1.061518700142639</v>
+        <v>1.062267704813275</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.536043938855308</v>
       </c>
       <c r="E37" t="n">
-        <v>5.606632346612418</v>
+        <v>5.599862103614875</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.189181281067534</v>
+        <v>-2.189490081238761</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9563309954812126</v>
+        <v>0.9573238281830305</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.443601982949399</v>
       </c>
       <c r="E38" t="n">
-        <v>5.300798993105955</v>
+        <v>5.293741120634502</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.143012370360864</v>
+        <v>-2.143293429618364</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8830015401634141</v>
+        <v>0.8838731888736866</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.353561058227654</v>
       </c>
       <c r="E39" t="n">
-        <v>4.986592263798131</v>
+        <v>4.979113897476496</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.084498023021516</v>
+        <v>-2.08472068035538</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8023645441506176</v>
+        <v>0.8033486165638901</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.26619817548651</v>
       </c>
       <c r="E40" t="n">
-        <v>4.696248560488118</v>
+        <v>4.688416862528483</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.104772250811874</v>
+        <v>-2.10447586104942</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7618467495798102</v>
+        <v>0.762683357135901</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.180015718040393</v>
       </c>
       <c r="E41" t="n">
-        <v>4.375200045826294</v>
+        <v>4.367679338110024</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.999001986962176</v>
+        <v>-1.99902534773163</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6823967726649225</v>
+        <v>0.6832713414713768</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.093246821316285</v>
       </c>
       <c r="E42" t="n">
-        <v>3.997181914705305</v>
+        <v>3.990316768581852</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.908763714703563</v>
+        <v>-1.908795105737518</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6033205680613074</v>
+        <v>0.6039673693655799</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.007244264346502</v>
       </c>
       <c r="E43" t="n">
-        <v>3.69613313879275</v>
+        <v>3.689412537430297</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.856079339391214</v>
+        <v>-1.856220964056032</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5630320010407728</v>
+        <v>0.5636948628740454</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.9225930006242448</v>
       </c>
       <c r="E44" t="n">
-        <v>3.394649268549103</v>
+        <v>3.388552107721468</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.760939685691421</v>
+        <v>-1.76122585511724</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5140911890335131</v>
+        <v>0.5145686247592404</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8394631134910235</v>
       </c>
       <c r="E45" t="n">
-        <v>3.112144563439179</v>
+        <v>3.106101424390908</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.678435288170353</v>
+        <v>-1.678652835335898</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4191895231725387</v>
+        <v>0.4198611452943567</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.7597506160575094</v>
       </c>
       <c r="E46" t="n">
-        <v>2.817505398645713</v>
+        <v>2.811624324935533</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.600341695931919</v>
+        <v>-1.600373816989919</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3813217158867306</v>
+        <v>0.381972897335276</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.6835778924451011</v>
       </c>
       <c r="E47" t="n">
-        <v>2.487460067647711</v>
+        <v>2.481979047114439</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.478640847362315</v>
+        <v>-1.478925556740043</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3176636191231114</v>
+        <v>0.3182812194655658</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6111682695526894</v>
       </c>
       <c r="E48" t="n">
-        <v>2.194716045276244</v>
+        <v>2.189678879362609</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.374492696941616</v>
+        <v>-1.375043135071889</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2897241388554825</v>
+        <v>0.2899577465500279</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.5440919458253849</v>
       </c>
       <c r="E49" t="n">
-        <v>1.913875794989955</v>
+        <v>1.909536532063775</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.287851983179003</v>
+        <v>-1.288684210590821</v>
       </c>
       <c r="G49" t="n">
-        <v>0.235905306176497</v>
+        <v>0.2361184731977697</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4819969589282767</v>
       </c>
       <c r="E50" t="n">
-        <v>1.779947043658991</v>
+        <v>1.775527478087811</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.166387662400126</v>
+        <v>-1.167446197266035</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1977352689358709</v>
+        <v>0.1977922108114163</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4244225959551233</v>
       </c>
       <c r="E51" t="n">
-        <v>1.504233022219884</v>
+        <v>1.500701165887976</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.09026513508442</v>
+        <v>-1.091352870912147</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1669121936886973</v>
+        <v>0.1669355544581519</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3719875632137261</v>
       </c>
       <c r="E52" t="n">
-        <v>1.345330148293926</v>
+        <v>1.342084461387836</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.007858560785442</v>
+        <v>-1.009001778440623</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1442347267407034</v>
+        <v>0.144288748520067</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3248401838093833</v>
       </c>
       <c r="E53" t="n">
-        <v>1.102883322606173</v>
+        <v>1.09987270344272</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9342984178692797</v>
+        <v>-0.935700064036552</v>
       </c>
       <c r="G53" t="n">
-        <v>0.100728213727806</v>
+        <v>0.1007471943529878</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2821689432926928</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9579487287659395</v>
+        <v>0.9552622402786675</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9416088786604596</v>
+        <v>-0.9429316822308228</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04992876050081965</v>
+        <v>0.04985867819245603</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2435067085174858</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7966075745281646</v>
+        <v>0.7941181925331653</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.895242131437472</v>
+        <v>-0.8966116565467444</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0219586192232817</v>
+        <v>0.02224916879337253</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2073348773036972</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6502552739916584</v>
+        <v>0.6483747320505681</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8461144332745761</v>
+        <v>-0.8475949220387575</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0154803858439198</v>
+        <v>0.0156482913743743</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.172298699845837</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5067500672324242</v>
+        <v>0.5050009296195156</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8139174527738575</v>
+        <v>-0.8156972513966751</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01203568047734554</v>
+        <v>-0.01190427614916375</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1384111523784934</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3966376203603629</v>
+        <v>0.3951761122213633</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8083897107016772</v>
+        <v>-0.8100191243711312</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02778667928206858</v>
+        <v>-0.02764505461725043</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1062882167895713</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2509350412243112</v>
+        <v>0.2493289883243116</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7435708757057855</v>
+        <v>-0.7452499310103304</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09283474182823293</v>
+        <v>-0.09263909538405117</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.07551239215804598</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1907357983880546</v>
+        <v>0.189274290249055</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7269044267480627</v>
+        <v>-0.7285586612350622</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.08002719997478182</v>
+        <v>-0.07991769636796367</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.04600249901762947</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0329016796646424</v>
+        <v>0.03145477200655188</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.6992219149444338</v>
+        <v>-0.7007710259688879</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1364609787845849</v>
+        <v>-0.136314973975494</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.01693946104052706</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.05431429304578873</v>
+        <v>-0.05574806027106107</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7176667024768834</v>
+        <v>-0.7191559515296102</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1684462523121217</v>
+        <v>-0.1684477123602126</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.01146097899656482</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1476916686998546</v>
+        <v>-0.1490772543381269</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7513135107318742</v>
+        <v>-0.7528699219967829</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1835519098606631</v>
+        <v>-0.1835708904858449</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.03894692887635137</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2605869672331879</v>
+        <v>-0.2621506787385511</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7542701081159644</v>
+        <v>-0.7556702942351459</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2170059917676541</v>
+        <v>-0.2169694905653814</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.06609402778648647</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4133751597544196</v>
+        <v>-0.4149242707788737</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.7355041100035149</v>
+        <v>-0.7370357004508782</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2374539652808305</v>
+        <v>-0.2374393647999214</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.09267090411984559</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4374294520521404</v>
+        <v>-0.4394516186580489</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.766014734959234</v>
+        <v>-0.767581366560779</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2529479956215536</v>
+        <v>-0.2531524023542808</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.118440036890881</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5241548486040262</v>
+        <v>-0.5259740685252985</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8063777644324049</v>
+        <v>-0.80789621444695</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2677835442732769</v>
+        <v>-0.268101834757095</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1426341838808568</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5572687393058355</v>
+        <v>-0.5594296104803803</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.755187018317055</v>
+        <v>-0.7572237854038727</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3191042346687176</v>
+        <v>-0.3191859973618085</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1652182353244374</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.6375042220936321</v>
+        <v>-0.6398271586062678</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.8010456688044064</v>
+        <v>-0.8028342277157695</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3173842980176272</v>
+        <v>-0.3177128088380816</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.185544867906691</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.7471552937689663</v>
+        <v>-0.7493526661457839</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.7975196526648619</v>
+        <v>-0.7998615698026794</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3573195334001619</v>
+        <v>-0.357398375997071</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2031449652054934</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7752349386533224</v>
+        <v>-0.7775345143965037</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9265134414485545</v>
+        <v>-0.928392523341554</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4020758475788772</v>
+        <v>-0.4019926248376954</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2190202306725199</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.8179004639658565</v>
+        <v>-0.8203372842295831</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.9930419927589003</v>
+        <v>-0.9950174378258998</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.419508821784327</v>
+        <v>-0.4195613835155997</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2352664372263899</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.869545285037479</v>
+        <v>-0.8715075896716602</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.027820338284346</v>
+        <v>-1.029484793107981</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4526927947944999</v>
+        <v>-0.4526694340250454</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2532977731226382</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8122821989120398</v>
+        <v>-0.8140824382081302</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.052737519003793</v>
+        <v>-1.054489576712884</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4671428907502233</v>
+        <v>-0.4670786486342233</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2738861974290853</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7965019991454986</v>
+        <v>-0.7980233692562254</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.118479104393139</v>
+        <v>-1.119896811089412</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4560640458364081</v>
+        <v>-0.4559647625662263</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2966006257025128</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7131186526737028</v>
+        <v>-0.7146677636981569</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.161045346435492</v>
+        <v>-1.162251346158582</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4587227934099529</v>
+        <v>-0.4587184132656801</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3197354738928602</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5618357697341979</v>
+        <v>-0.5636462293669247</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.145127902148405</v>
+        <v>-1.146660952643859</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4395640423610489</v>
+        <v>-0.439369855964958</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3408100819776705</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4226931866705989</v>
+        <v>-0.4249708616924165</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.169662550268035</v>
+        <v>-1.171008714607852</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4521204559428637</v>
+        <v>-0.451780264737682</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3573816589094538</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3198707599164447</v>
+        <v>-0.3220695923413532</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.252057444182285</v>
+        <v>-1.25298019457574</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3956574761712425</v>
+        <v>-0.3954048878515153</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3666652181583086</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1306952488735864</v>
+        <v>-0.1330167253381312</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.309187665931452</v>
+        <v>-1.309935210553997</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3732369776872486</v>
+        <v>-0.3730559317239759</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3658832911035067</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02794773649218918</v>
+        <v>0.02546127459337167</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.30158519552209</v>
+        <v>-1.301834863745636</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3232945726896256</v>
+        <v>-0.3231398075919893</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3531118329152742</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2398211551563141</v>
+        <v>0.2371857683522239</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.289573379878184</v>
+        <v>-1.289706244254457</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2873087673929989</v>
+        <v>-0.2872518255174534</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3270430638206496</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4222600043077196</v>
+        <v>0.4196333777921749</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.2304706331582</v>
+        <v>-1.230780163353473</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2695925438579128</v>
+        <v>-0.2695166213571855</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.287232924115499</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6283837535898461</v>
+        <v>0.6260155555863922</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.15284863645313</v>
+        <v>-1.153272050399494</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2450973170367375</v>
+        <v>-0.2449848933337375</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2347046474482836</v>
       </c>
       <c r="E85" t="n">
-        <v>0.74235656761427</v>
+        <v>0.7404979263945433</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.064596029598154</v>
+        <v>-1.065304152922244</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2095203252055652</v>
+        <v>-0.2094633833300198</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.171919613344563</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9674536418377551</v>
+        <v>0.965535138646301</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9989770882484441</v>
+        <v>-0.9994720445512623</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1805734117552094</v>
+        <v>-0.1803368839644822</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1019618802239173</v>
       </c>
       <c r="E87" t="n">
-        <v>1.110408410466717</v>
+        <v>1.108735195354535</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.94350548113055</v>
+        <v>-0.9437332486327317</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1504496995435811</v>
+        <v>-0.1503139150711266</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.02927877934330074</v>
       </c>
       <c r="E88" t="n">
-        <v>1.212421970578508</v>
+        <v>1.211141508402781</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8888631813282919</v>
+        <v>-0.88900480599311</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.114085741791409</v>
+        <v>-0.1139441171265909</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.03913162967963294</v>
       </c>
       <c r="E89" t="n">
-        <v>1.334347666554111</v>
+        <v>1.333096405340202</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7926299516084087</v>
+        <v>-0.792240118768136</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1125585314883185</v>
+        <v>-0.1123468245151368</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.09521298912382353</v>
       </c>
       <c r="E90" t="n">
-        <v>1.371121897819829</v>
+        <v>1.370618181228465</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6924618922835265</v>
+        <v>-0.6921450618477992</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07830288317941865</v>
+        <v>-0.07812329726423688</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1308855604295405</v>
       </c>
       <c r="E91" t="n">
-        <v>1.41567964545818</v>
+        <v>1.415243091078999</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5873924515174638</v>
+        <v>-0.5867237494918276</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.0165778900881625</v>
+        <v>-0.01683631860025334</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1402622909482652</v>
       </c>
       <c r="E92" t="n">
-        <v>1.438657882312901</v>
+        <v>1.43854399856181</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4600076357299525</v>
+        <v>-0.4589023793251346</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.0206397438770705</v>
+        <v>-0.02048497877943417</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1230843253971703</v>
       </c>
       <c r="E93" t="n">
-        <v>1.409824852613636</v>
+        <v>1.409982537807454</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3516676872402543</v>
+        <v>-0.3503711645355274</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01398338463061774</v>
+        <v>-0.01383883986961778</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.08400690618621243</v>
       </c>
       <c r="E94" t="n">
-        <v>1.410150443337909</v>
+        <v>1.410040939731091</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2120870897493827</v>
+        <v>-0.2109832933926558</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01667571331025338</v>
+        <v>-0.01668593364688974</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.03010644623737635</v>
       </c>
       <c r="E95" t="n">
-        <v>1.335190114302566</v>
+        <v>1.335490884209293</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09578987916423214</v>
+        <v>-0.09487442901123239</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01897090890916186</v>
+        <v>-0.01901325030379821</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.02932468869255632</v>
       </c>
       <c r="E96" t="n">
-        <v>1.257220626151859</v>
+        <v>1.257343270191495</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03115254205173378</v>
+        <v>0.03198914960782446</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03382251808988514</v>
+        <v>-0.03379477717615788</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.08530279463175516</v>
       </c>
       <c r="E97" t="n">
-        <v>1.174618405408699</v>
+        <v>1.174961516710063</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1320739861915249</v>
+        <v>0.1325120006187975</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05232716759406199</v>
+        <v>-0.05240601019097106</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1334998779359268</v>
       </c>
       <c r="E98" t="n">
-        <v>1.076323587784453</v>
+        <v>1.077039011348998</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1930747954296903</v>
+        <v>0.1934982093760538</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05727235047796975</v>
+        <v>-0.05738623422906063</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1725651541293617</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9388892609872173</v>
+        <v>0.9395900840708534</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1944720614526899</v>
+        <v>0.1948283131868716</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05143215811433496</v>
+        <v>-0.05193587470569846</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2082600215948588</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8442139025803337</v>
+        <v>0.8449833479242426</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2110888687753218</v>
+        <v>0.2113137161813218</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.04521527334324572</v>
+        <v>-0.04549122243242746</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.241553296388323</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6911483009218293</v>
+        <v>0.6923090391541017</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1973366758070528</v>
+        <v>0.1977542495610527</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.04920412472760828</v>
+        <v>-0.04948883410533548</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.279641551814814</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6318791087194816</v>
+        <v>0.6326295734382086</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2064123347401413</v>
+        <v>0.2065787802225049</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08128430138105422</v>
+        <v>-0.08157631099923596</v>
       </c>
     </row>
   </sheetData>
